--- a/data/profiles/xlsx/bluff/profile 24-4 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 24-4 graph.xlsx
@@ -4077,11 +4077,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26471273"/>
-        <c:axId val="58844914"/>
+        <c:axId val="21672531"/>
+        <c:axId val="39071773"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26471273"/>
+        <c:axId val="21672531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,12 +4116,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58844914"/>
+        <c:crossAx val="39071773"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58844914"/>
+        <c:axId val="39071773"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4165,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26471273"/>
+        <c:crossAx val="21672531"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
